--- a/common-poi/src/main/resources/xlsx/demo_each.xlsx
+++ b/common-poi/src/main/resources/xlsx/demo_each.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ideaworkspace\ws1\spring-boot-2-common\common-poi\src\main\resources\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAFAD73E-7F8B-4B1A-A33F-D14003993B82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="13455" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="13452" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -34,9 +40,6 @@
   </si>
   <si>
     <t>${detail.user}</t>
-  </si>
-  <si>
-    <t>#formula SUM(B${detailStartRowNo}:B${detailEndRowNo})</t>
   </si>
   <si>
     <t>detail开始行：${detailStartRowNo}</t>
@@ -55,37 +58,13 @@
   </si>
   <si>
     <t>#end</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#each ${list}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#each ${model}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#each ${list.[0]}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#each ${list.[0]} on ${year}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,9 +178,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +190,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -262,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +274,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,31 +518,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.625" customWidth="1"/>
-    <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -540,14 +551,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -556,49 +567,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -609,12 +585,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -623,12 +599,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
